--- a/WestVSHubertBAZA.xlsx
+++ b/WestVSHubertBAZA.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____DATA\_____PROJECTS\python\automate\MlodyWestVSHubert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3AC6B0-7C9B-4A34-A8F4-EB08717B33AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B239D-9855-4FFC-B265-FA8C98F7F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Liczby" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Rok</t>
   </si>
   <si>
     <t>Miesiąc</t>
+  </si>
+  <si>
+    <t>Dzien</t>
   </si>
   <si>
     <t>MłodyWest</t>
@@ -360,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,9 +388,52 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2138</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>154720</v>
+      </c>
+      <c r="F2">
+        <v>148783</v>
+      </c>
+      <c r="G2">
+        <v>5937</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276DAE4-9B14-4523-8DBB-EAC6532A8D24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WestVSHubertBAZA.xlsx
+++ b/WestVSHubertBAZA.xlsx
@@ -1,68 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____DATA\_____PROJECTS\python\automate\MlodyWestVSHubert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B239D-9855-4FFC-B265-FA8C98F7F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Liczby" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Liczby" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Rok</t>
-  </si>
-  <si>
-    <t>Miesiąc</t>
-  </si>
-  <si>
-    <t>Dzien</t>
-  </si>
-  <si>
-    <t>MłodyWest</t>
-  </si>
-  <si>
-    <t>Hubert.</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>&lt;-- West - Hubert</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,22 +47,2863 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Rok</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Miesiąc</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Genre</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total Sales by Genre</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$E$2:$E$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>154720</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$F$2:$F$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>148783</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Liczby'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Liczby'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Liczby'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <val>
+            <numRef>
+              <f>Liczby!#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$E$2:$E$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>154720</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$F$2:$F$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>148783</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>kupa</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>MłodyWest</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$E$2:$E$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>154720</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Liczby!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hubert.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <numRef>
+              <f>Liczby!$C$2:$C$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Liczby!$F$2:$F$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>148783</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Miesiąc</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monthly listeners</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="1"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,61 +3168,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="4.81640625" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="9.90625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="5.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.36328125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="7.1796875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="4.81640625" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Rok</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Miesiąc</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dzien</t>
+        </is>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MłodyWest</t>
+        </is>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Hubert.</t>
+        </is>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>&lt;-- West - Hubert</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2138</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2143</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2024</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>154720</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>148783</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5937</v>
       </c>
     </row>
@@ -425,15 +3260,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276DAE4-9B14-4523-8DBB-EAC6532A8D24}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>